--- a/src/qualitative input.xlsx
+++ b/src/qualitative input.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plinders/Documents/Uni/Proteomics meta-analysis/Heatmap/New heatmap/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33520" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Bet1</t>
   </si>
@@ -198,13 +193,19 @@
   </si>
   <si>
     <t>STX12</t>
+  </si>
+  <si>
+    <t>2015 Guo Latex Early BMDM</t>
+  </si>
+  <si>
+    <t>2015 Guo Latex Early RAW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -336,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -513,35 +514,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A28" sqref="A28"/>
+      <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -558,28 +563,34 @@
         <v>52</v>
       </c>
       <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -595,7 +606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -606,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -614,7 +625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -622,7 +633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -632,17 +643,17 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -652,11 +663,17 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -666,11 +683,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -680,11 +697,17 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -692,7 +715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -700,7 +723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -708,7 +731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -718,20 +741,26 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -742,15 +771,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -758,7 +793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -766,7 +801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -777,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -785,15 +820,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -803,28 +844,40 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -835,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -845,8 +898,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -859,40 +918,46 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -900,15 +965,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -916,7 +987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -924,7 +995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -932,7 +1003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -940,15 +1011,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -958,14 +1035,20 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -975,14 +1058,20 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -990,7 +1079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1000,17 +1089,23 @@
       <c r="E38">
         <v>1</v>
       </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1020,12 +1115,12 @@
       <c r="E39">
         <v>1</v>
       </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39">
         <v>1</v>
       </c>
@@ -1035,8 +1130,14 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1046,14 +1147,20 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1063,14 +1170,14 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1078,6 +1185,12 @@
         <v>44</v>
       </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
     </row>
